--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1865338.21161139</v>
+        <v>-1867288.43743995</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800617</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>339.0978707103997</v>
+        <v>78.8114623544606</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>32.45434596686118</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.434042664916</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>26.32882004050031</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>221.5496720074089</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>330.928056639124</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>88.06311349350455</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>86.11456485616236</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>230.6563378775056</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>295.9408816142891</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>218.1740988936869</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>95.31089658769019</v>
       </c>
       <c r="S13" t="n">
-        <v>130.7675922068287</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>104.0848521312994</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>150.5468687366561</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1825,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>80.83119524460973</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>241.1995513078581</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>197.7836033113221</v>
+        <v>277.3189580421779</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>95.31089658768997</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>103.2973384150642</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689871</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G28" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789599</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I28" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463186</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463129</v>
@@ -3709,13 +3709,13 @@
         <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3724,7 +3724,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
         <v>150.4527632224541</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1706.076492408369</v>
+        <v>1408.083041312479</v>
       </c>
       <c r="C2" t="n">
-        <v>1706.076492408369</v>
+        <v>1039.120524372067</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2664.366923374928</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2664.366923374928</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2664.366923374928</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.60513801302</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2079.542250669449</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>2079.542250669449</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X2" t="n">
-        <v>1706.076492408369</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y2" t="n">
-        <v>1706.076492408369</v>
+        <v>1794.6828813766</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,13 +4413,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2321.694245121008</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C4" t="n">
-        <v>2321.694245121008</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>2321.694245121008</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>2191.96288889382</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2321.694245121008</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2321.694245121008</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2321.694245121008</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2321.694245121008</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>2321.694245121008</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>2321.694245121008</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1191.835263233623</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>1581.974595209434</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X5" t="n">
-        <v>1581.974595209434</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y5" t="n">
-        <v>1191.835263233623</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140.927390765983</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="C7" t="n">
-        <v>140.927390765983</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="D7" t="n">
-        <v>140.927390765983</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>140.927390765983</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>140.927390765983</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="X7" t="n">
-        <v>322.5758555962227</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="Y7" t="n">
-        <v>322.5758555962227</v>
+        <v>290.8087152951864</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1529.2861479534</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1160.323631012988</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1160.323631012988</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>774.5353784147437</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>767.5898776655403</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1363.553390680693</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>1363.553390680693</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.553390680693</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4896,34 +4896,34 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.6044479702274</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,25 +5039,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,7 +5118,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
@@ -5127,13 +5127,13 @@
         <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977054</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.1830073829216</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1402.642637641044</v>
       </c>
       <c r="S13" t="n">
-        <v>1255.752690143133</v>
+        <v>1402.642637641044</v>
       </c>
       <c r="T13" t="n">
-        <v>1255.752690143133</v>
+        <v>1402.642637641044</v>
       </c>
       <c r="U13" t="n">
-        <v>966.6240513566914</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="V13" t="n">
-        <v>966.6240513566914</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="W13" t="n">
-        <v>966.6240513566914</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X13" t="n">
-        <v>966.6240513566914</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y13" t="n">
-        <v>745.8314722131613</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,25 +5276,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,13 +5312,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5343,34 +5343,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>978.2031513914714</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="C16" t="n">
-        <v>809.2669684635645</v>
+        <v>929.4878141548604</v>
       </c>
       <c r="D16" t="n">
-        <v>659.1503290512287</v>
+        <v>779.3711747425247</v>
       </c>
       <c r="E16" t="n">
-        <v>511.2372354688356</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>511.2372354688356</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,10 +5452,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
@@ -5473,13 +5473,13 @@
         <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119728</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X16" t="n">
-        <v>1159.851616221711</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="Y16" t="n">
-        <v>1159.851616221711</v>
+        <v>1098.423997082767</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,25 +5513,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,13 +5592,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
         <v>1198.760773441947</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>178.8647634245381</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C19" t="n">
-        <v>178.8647634245381</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D19" t="n">
-        <v>178.8647634245381</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E19" t="n">
-        <v>178.8647634245381</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>1255.280360145925</v>
       </c>
       <c r="V19" t="n">
-        <v>1098.712528333286</v>
+        <v>1255.280360145925</v>
       </c>
       <c r="W19" t="n">
-        <v>809.2953582963253</v>
+        <v>965.863190108964</v>
       </c>
       <c r="X19" t="n">
-        <v>581.3058073983079</v>
+        <v>965.863190108964</v>
       </c>
       <c r="Y19" t="n">
-        <v>360.5132282547778</v>
+        <v>745.0706109654338</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028562</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.0436439308535</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="C22" t="n">
-        <v>527.0436439308535</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185177</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185177</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
         <v>208.7516828383384</v>
@@ -5941,19 +5941,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1299.134853071718</v>
+        <v>1218.796110919339</v>
       </c>
       <c r="V22" t="n">
-        <v>1044.450364865831</v>
+        <v>964.1116227134519</v>
       </c>
       <c r="W22" t="n">
-        <v>755.0331948288708</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="X22" t="n">
-        <v>527.0436439308535</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.0436439308535</v>
+        <v>674.6944526764913</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>584.4452354807079</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C25" t="n">
-        <v>415.509052552801</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6148,19 +6148,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1402.642637641044</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1402.642637641044</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1402.642637641044</v>
       </c>
       <c r="U25" t="n">
-        <v>1283.500421245926</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="V25" t="n">
-        <v>1283.500421245926</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="W25" t="n">
-        <v>994.083251208965</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X25" t="n">
-        <v>766.0937003109476</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y25" t="n">
-        <v>766.0937003109476</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="26">
@@ -6215,13 +6215,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
@@ -6233,22 +6233,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
@@ -6300,22 +6300,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>261.804845931104</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>410.8745301331637</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>1024.771599890052</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170014</v>
+        <v>1722.015429253976</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O27" t="n">
         <v>2331.418122136706</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108334</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D28" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E28" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103134</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6479,31 +6479,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6598,22 +6598,22 @@
         <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D31" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E31" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103134</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982979</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6622,10 +6622,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6652,7 +6652,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
         <v>1304.027639859417</v>
@@ -6704,13 +6704,13 @@
         <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6844,7 +6844,7 @@
         <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,7 +6898,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010317</v>
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,16 +6929,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6959,13 +6959,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7011,10 +7011,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
         <v>674.4285624571608</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7117,28 +7117,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7160,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823804</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,19 +7248,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,25 +7421,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7561,7 +7561,7 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7640,19 +7640,19 @@
         <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,22 +8775,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305249</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>277.6717966208073</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928343</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,22 +9951,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>124.3400780863238</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>127.6461250100662</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504523</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627467</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720756</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22550,10 +22550,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>200.7473380007139</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22592,10 +22592,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>22.02405660795051</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642729</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>14.65345581610261</v>
       </c>
       <c r="S13" t="n">
-        <v>67.1532177767746</v>
+        <v>197.9208099836048</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>42.34911051526973</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15.94669972672148</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,16 +23893,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>64.58985277832151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,7 +23944,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>45.03780109071926</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24181,7 +24181,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>88.45374908725523</v>
+        <v>8.91839435639946</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24370,13 +24370,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>14.65345581610283</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,19 +24418,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>182.9400139835132</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.999023462385572e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-5.613287612504791e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1324205.226052189</v>
+        <v>1324205.226052188</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1324205.226052189</v>
+        <v>1324205.226052188</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58099.54682262558</v>
+        <v>58099.54682262555</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="E2" t="n">
+        <v>58654.35896065629</v>
+      </c>
+      <c r="F2" t="n">
         <v>58654.3589606563</v>
       </c>
-      <c r="F2" t="n">
-        <v>58654.35896065627</v>
-      </c>
       <c r="G2" t="n">
-        <v>58654.35896065627</v>
+        <v>58654.3589606563</v>
       </c>
       <c r="H2" t="n">
         <v>58654.3589606563</v>
       </c>
       <c r="I2" t="n">
-        <v>58654.3589606563</v>
+        <v>58654.35896065633</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.1327398213</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982129</v>
+        <v>61578.13273982131</v>
       </c>
       <c r="L2" t="n">
         <v>61578.1327398213</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.1327398213</v>
+        <v>61578.13273982133</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.1327398213</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="O2" t="n">
         <v>61578.13273982129</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982129</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371246</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
+        <v>15045.66962143912</v>
+      </c>
+      <c r="G4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15045.66962143911</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="J4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="K4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275964</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,7 +26491,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
         <v>97715.1058200254</v>
@@ -26500,13 +26500,13 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-745029.5378922786</v>
+        <v>-745145.490756185</v>
       </c>
       <c r="C6" t="n">
-        <v>-178055.9035748108</v>
+        <v>-178055.9035748109</v>
       </c>
       <c r="D6" t="n">
         <v>-178055.9035748109</v>
       </c>
       <c r="E6" t="n">
-        <v>-573538.6730863956</v>
+        <v>-573636.1322123677</v>
       </c>
       <c r="F6" t="n">
-        <v>-48378.63660949946</v>
+        <v>-48476.09573547162</v>
       </c>
       <c r="G6" t="n">
-        <v>-48378.63660949946</v>
+        <v>-48476.0957354716</v>
       </c>
       <c r="H6" t="n">
-        <v>-48378.63660949946</v>
+        <v>-48476.09573547164</v>
       </c>
       <c r="I6" t="n">
-        <v>-48378.63660949946</v>
+        <v>-48476.09573547163</v>
       </c>
       <c r="J6" t="n">
-        <v>-304530.1612392693</v>
+        <v>-304530.1612392691</v>
       </c>
       <c r="K6" t="n">
-        <v>-73601.42994296372</v>
+        <v>-73601.42994296367</v>
       </c>
       <c r="L6" t="n">
         <v>-73601.4299429637</v>
       </c>
       <c r="M6" t="n">
-        <v>-208402.4451768007</v>
+        <v>-208402.4451768008</v>
       </c>
       <c r="N6" t="n">
-        <v>-73601.42994296382</v>
+        <v>-73601.42994296376</v>
       </c>
       <c r="O6" t="n">
-        <v>-128106.9420466762</v>
+        <v>-128106.9420466761</v>
       </c>
       <c r="P6" t="n">
-        <v>-73601.4299429637</v>
+        <v>-73601.42994296369</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964069</v>
       </c>
-      <c r="K2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964071</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541001</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15.5851709102833</v>
+        <v>75.1242412655084</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>17.99991998165314</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>192.2558333115945</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>133.1333696132741</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>18.312912078289</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>60.55235952470781</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>81.19523740288855</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>183.1278321432894</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>53.30008710312387</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>157.4983735401874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>68.3488994429041</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32780,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
@@ -32792,7 +32792,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
@@ -32801,10 +32801,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32816,7 +32816,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32880,7 +32880,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32892,10 +32892,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34062,10 +34062,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34299,10 +34299,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,19 +35495,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541607</v>
+        <v>482.1033309642237</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768315</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36522,7 +36522,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221134</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081117</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>166.2502570412304</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504661</v>
+        <v>438.0705020605324</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315246</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36759,7 +36759,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M28" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N28" t="n">
         <v>341.4087679352443</v>
@@ -36768,7 +36768,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36847,13 +36847,13 @@
         <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36996,7 +36996,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N31" t="n">
         <v>341.4087679352443</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37072,7 +37072,7 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109089</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
@@ -37081,7 +37081,7 @@
         <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109122</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086131</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415096</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,13 +37713,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37944,7 +37944,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352443</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
